--- a/medicine/Mort/Cimetière_des_Quatre-Nations/Cimetière_des_Quatre-Nations.xlsx
+++ b/medicine/Mort/Cimetière_des_Quatre-Nations/Cimetière_des_Quatre-Nations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Quatre-Nations</t>
+          <t>Cimetière_des_Quatre-Nations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Quatre-Nations est un cimetière situé à Caen. Ouvert dans les années 1780, il ne reçoit plus de corps.
-Le site est classé depuis le 30 mars 1939[1].
+Le site est classé depuis le 30 mars 1939.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Quatre-Nations</t>
+          <t>Cimetière_des_Quatre-Nations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé au no 9 de la rue Desmoueux, à proximité du jardin des plantes de Caen, sur les coteaux au nord du centre-ville ancien de Caen.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Quatre-Nations</t>
+          <t>Cimetière_des_Quatre-Nations</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 1er mars 1780, le parlement de Rouen confirme un arrêt du bailliage de Caen de 1779 ordonnant le transfert des cimetières urbains en dehors de la ville. En 1784, les paroisses Notre-Dame, Saint-Sauveur, Saint-Martin et Saint-Étienne achètent un terrain à côté de la chapelle Notre-Dame-des-Champs. Le cimetière dit des Quatre-Nations, en référence aux quatre paroisses, est béni le 4 avril 1789[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er mars 1780, le parlement de Rouen confirme un arrêt du bailliage de Caen de 1779 ordonnant le transfert des cimetières urbains en dehors de la ville. En 1784, les paroisses Notre-Dame, Saint-Sauveur, Saint-Martin et Saint-Étienne achètent un terrain à côté de la chapelle Notre-Dame-des-Champs. Le cimetière dit des Quatre-Nations, en référence aux quatre paroisses, est béni le 4 avril 1789.
 Situé à l'origine à la périphérie de la ville, le cimetière est rattrapé par l'extension urbaine après l'aménagement d'un quartier destiné à la bourgeoisie caennaise à la Belle Époque.
-François Truffaut y tourne des scènes de son film La Chambre verte en 1977[3].
+François Truffaut y tourne des scènes de son film La Chambre verte en 1977.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Quatre-Nations</t>
+          <t>Cimetière_des_Quatre-Nations</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Sépultures et monuments remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Calvaire à la mémoire des guillotinés de la révolution française.
 Tombe de Michelot Moulin, figure de la chouannerie normande, décédé en 1839.
